--- a/EC/Train Runs and Enforcements 2016-06-26.xlsx
+++ b/EC/Train Runs and Enforcements 2016-06-26.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Enforcements!$A$6:$N$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Enforcements!$A$6:$N$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Trips'!$A$2:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Train Runs'!$A$12:$AC$155</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Trips&amp;Operators'!$A$1:$E$211</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="503">
   <si>
     <t>Train ID</t>
   </si>
@@ -1559,9 +1559,6 @@
   </si>
   <si>
     <t>Early Arrival</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Inefficient dispatching at 40th 4S</t>
@@ -2137,42 +2134,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_XINGS" xfId="1"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -2604,8 +2566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S125" sqref="S125"/>
+    <sheetView showGridLines="0" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R129" sqref="R129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16853,27 +16815,27 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="W11:W12 W13:X1048576">
-    <cfRule type="cellIs" dxfId="16" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="69" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X1048576">
-    <cfRule type="cellIs" dxfId="15" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="52" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:X1048576">
-    <cfRule type="cellIs" dxfId="14" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:S155">
-    <cfRule type="expression" dxfId="13" priority="45">
+    <cfRule type="expression" dxfId="8" priority="45">
       <formula>$O13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:S155">
-    <cfRule type="expression" dxfId="12" priority="44">
+    <cfRule type="expression" dxfId="7" priority="44">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16905,8 +16867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17074,13 +17036,13 @@
     </row>
     <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
-        <v>42547.643599537034</v>
+        <v>42547.281678240739</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>358</v>
+        <v>262</v>
       </c>
       <c r="D8" s="66" t="s">
         <v>50</v>
@@ -17092,23 +17054,23 @@
         <v>0</v>
       </c>
       <c r="G8" s="66">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="H8" s="66">
-        <v>58892</v>
+        <v>62927</v>
       </c>
       <c r="I8" s="66" t="s">
         <v>77</v>
       </c>
       <c r="J8" s="66">
-        <v>58301</v>
+        <v>63068</v>
       </c>
       <c r="K8" s="66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L8" s="16" t="str">
         <f>VLOOKUP(C8,'Trips&amp;Operators'!$C$2:$E$10000,3,FALSE)</f>
-        <v>STEWART</v>
+        <v>MALAVE</v>
       </c>
       <c r="M8" s="15" t="s">
         <v>140</v>
@@ -17119,22 +17081,22 @@
       <c r="O8" s="42"/>
       <c r="P8" s="54" t="str">
         <f>VLOOKUP(C8,'Train Runs'!$A$13:$V$174,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 14:52:45-0600',mode:absolute,to:'2016-06-26 15:42:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 06:26:25-0600',mode:absolute,to:'2016-06-26 07:09:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q8" s="14" t="str">
         <f t="shared" ref="Q8:Q70" si="0">MID(B8,13,4)</f>
-        <v>4008</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="78">
-        <v>42547.281678240739</v>
+        <v>42547.437638888892</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>262</v>
+        <v>468</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>50</v>
@@ -17146,10 +17108,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="66">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H9" s="66">
-        <v>62927</v>
+        <v>63003</v>
       </c>
       <c r="I9" s="66" t="s">
         <v>77</v>
@@ -17172,50 +17134,50 @@
       </c>
       <c r="P9" s="54" t="str">
         <f>VLOOKUP(C9,'Train Runs'!$A$13:$V$174,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 06:26:25-0600',mode:absolute,to:'2016-06-26 07:09:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 10:10:09-0600',mode:absolute,to:'2016-06-26 10:55:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q9" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>4042</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78">
-        <v>42547.38685185185</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>456</v>
-      </c>
-      <c r="D10" s="66" t="s">
+      <c r="A10" s="18">
+        <v>42547.324583333335</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="17">
         <v>0</v>
       </c>
-      <c r="G10" s="66">
-        <v>303</v>
-      </c>
-      <c r="H10" s="66">
-        <v>61322</v>
-      </c>
-      <c r="I10" s="66" t="s">
+      <c r="G10" s="17">
+        <v>189</v>
+      </c>
+      <c r="H10" s="17">
+        <v>110027</v>
+      </c>
+      <c r="I10" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="66">
-        <v>63068</v>
-      </c>
-      <c r="K10" s="66" t="s">
-        <v>53</v>
+      <c r="J10" s="17">
+        <v>109135</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="L10" s="16" t="str">
         <f>VLOOKUP(C10,'Trips&amp;Operators'!$C$2:$E$10000,3,FALSE)</f>
-        <v>MAYBERRY</v>
+        <v>MALAVE</v>
       </c>
       <c r="M10" s="15" t="s">
         <v>140</v>
@@ -17225,22 +17187,22 @@
       </c>
       <c r="P10" s="54" t="str">
         <f>VLOOKUP(C10,'Train Runs'!$A$13:$V$174,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 09:00:35-0600',mode:absolute,to:'2016-06-26 09:49:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 07:23:10-0600',mode:absolute,to:'2016-06-26 08:10:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q10" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>4038</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78">
-        <v>42547.437638888892</v>
+        <v>42547.471307870372</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>468</v>
+        <v>284</v>
       </c>
       <c r="D11" s="66" t="s">
         <v>50</v>
@@ -17252,19 +17214,19 @@
         <v>0</v>
       </c>
       <c r="G11" s="66">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="H11" s="66">
-        <v>63003</v>
+        <v>109575</v>
       </c>
       <c r="I11" s="66" t="s">
         <v>77</v>
       </c>
       <c r="J11" s="66">
-        <v>63068</v>
+        <v>109135</v>
       </c>
       <c r="K11" s="66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L11" s="16" t="str">
         <f>VLOOKUP(C11,'Trips&amp;Operators'!$C$2:$E$10000,3,FALSE)</f>
@@ -17278,22 +17240,22 @@
       </c>
       <c r="P11" s="54" t="str">
         <f>VLOOKUP(C11,'Train Runs'!$A$13:$V$174,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 10:10:09-0600',mode:absolute,to:'2016-06-26 10:55:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 10:57:52-0600',mode:absolute,to:'2016-06-26 11:45:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q11" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>4024</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78">
-        <v>42547.715787037036</v>
+        <v>42547.38685185185</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>378</v>
+        <v>456</v>
       </c>
       <c r="D12" s="66" t="s">
         <v>50</v>
@@ -17305,23 +17267,23 @@
         <v>0</v>
       </c>
       <c r="G12" s="66">
-        <v>75</v>
+        <v>303</v>
       </c>
       <c r="H12" s="66">
-        <v>64056</v>
+        <v>61322</v>
       </c>
       <c r="I12" s="66" t="s">
         <v>77</v>
       </c>
       <c r="J12" s="66">
-        <v>63309</v>
+        <v>63068</v>
       </c>
       <c r="K12" s="66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L12" s="16" t="str">
         <f>VLOOKUP(C12,'Trips&amp;Operators'!$C$2:$E$10000,3,FALSE)</f>
-        <v>STEWART</v>
+        <v>MAYBERRY</v>
       </c>
       <c r="M12" s="15" t="s">
         <v>140</v>
@@ -17332,25 +17294,25 @@
       <c r="O12" s="42"/>
       <c r="P12" s="54" t="str">
         <f>VLOOKUP(C12,'Train Runs'!$A$13:$V$174,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 15:43:27-0600',mode:absolute,to:'2016-06-26 16:32:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 09:00:35-0600',mode:absolute,to:'2016-06-26 09:49:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q12" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>4007</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78">
-        <v>42547.717222222222</v>
+        <v>42547.427604166667</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>88</v>
+        <v>479</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>378</v>
+        <v>457</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E13" s="66" t="s">
         <v>76</v>
@@ -17359,23 +17321,23 @@
         <v>0</v>
       </c>
       <c r="G13" s="66">
-        <v>7</v>
+        <v>299</v>
       </c>
       <c r="H13" s="66">
-        <v>63290</v>
+        <v>110471</v>
       </c>
       <c r="I13" s="66" t="s">
         <v>77</v>
       </c>
       <c r="J13" s="66">
-        <v>63309</v>
+        <v>109135</v>
       </c>
       <c r="K13" s="66" t="s">
         <v>54</v>
       </c>
       <c r="L13" s="16" t="str">
         <f>VLOOKUP(C13,'Trips&amp;Operators'!$C$2:$E$10000,3,FALSE)</f>
-        <v>STEWART</v>
+        <v>MAYBERRY</v>
       </c>
       <c r="M13" s="15" t="s">
         <v>140</v>
@@ -17386,50 +17348,50 @@
       <c r="O13" s="42"/>
       <c r="P13" s="54" t="str">
         <f>VLOOKUP(C13,'Train Runs'!$A$13:$V$174,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 15:43:27-0600',mode:absolute,to:'2016-06-26 16:32:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 09:49:17-0600',mode:absolute,to:'2016-06-26 10:40:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q13" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>4007</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
-        <v>42547.324583333335</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="D14" s="17" t="s">
+      <c r="A14" s="78">
+        <v>42547.460300925923</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>467</v>
+      </c>
+      <c r="D14" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="66">
         <v>0</v>
       </c>
-      <c r="G14" s="17">
-        <v>189</v>
-      </c>
-      <c r="H14" s="17">
-        <v>110027</v>
-      </c>
-      <c r="I14" s="17" t="s">
+      <c r="G14" s="66">
+        <v>159</v>
+      </c>
+      <c r="H14" s="66">
+        <v>109523</v>
+      </c>
+      <c r="I14" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="66">
         <v>109135</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="66" t="s">
         <v>54</v>
       </c>
       <c r="L14" s="16" t="str">
         <f>VLOOKUP(C14,'Trips&amp;Operators'!$C$2:$E$10000,3,FALSE)</f>
-        <v>MALAVE</v>
+        <v>SANTIZO</v>
       </c>
       <c r="M14" s="15" t="s">
         <v>140</v>
@@ -17439,22 +17401,22 @@
       </c>
       <c r="P14" s="54" t="str">
         <f>VLOOKUP(C14,'Train Runs'!$A$13:$V$174,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 07:23:10-0600',mode:absolute,to:'2016-06-26 08:10:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 10:39:48-0600',mode:absolute,to:'2016-06-26 11:25:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q14" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>4041</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78">
-        <v>42547.427604166667</v>
+        <v>42547.643599537034</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>479</v>
+        <v>87</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>457</v>
+        <v>358</v>
       </c>
       <c r="D15" s="66" t="s">
         <v>50</v>
@@ -17466,23 +17428,23 @@
         <v>0</v>
       </c>
       <c r="G15" s="66">
-        <v>299</v>
+        <v>144</v>
       </c>
       <c r="H15" s="66">
-        <v>110471</v>
+        <v>58892</v>
       </c>
       <c r="I15" s="66" t="s">
         <v>77</v>
       </c>
       <c r="J15" s="66">
-        <v>109135</v>
+        <v>58301</v>
       </c>
       <c r="K15" s="66" t="s">
         <v>54</v>
       </c>
       <c r="L15" s="16" t="str">
         <f>VLOOKUP(C15,'Trips&amp;Operators'!$C$2:$E$10000,3,FALSE)</f>
-        <v>MAYBERRY</v>
+        <v>STEWART</v>
       </c>
       <c r="M15" s="15" t="s">
         <v>140</v>
@@ -17492,22 +17454,22 @@
       </c>
       <c r="P15" s="54" t="str">
         <f>VLOOKUP(C15,'Train Runs'!$A$13:$V$174,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 09:49:17-0600',mode:absolute,to:'2016-06-26 10:40:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 14:52:45-0600',mode:absolute,to:'2016-06-26 15:42:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q15" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>4037</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78">
-        <v>42547.460300925923</v>
+        <v>42547.715787037036</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>467</v>
+        <v>378</v>
       </c>
       <c r="D16" s="66" t="s">
         <v>50</v>
@@ -17519,23 +17481,23 @@
         <v>0</v>
       </c>
       <c r="G16" s="66">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="H16" s="66">
-        <v>109523</v>
+        <v>64056</v>
       </c>
       <c r="I16" s="66" t="s">
         <v>77</v>
       </c>
       <c r="J16" s="66">
-        <v>109135</v>
+        <v>63309</v>
       </c>
       <c r="K16" s="66" t="s">
         <v>54</v>
       </c>
       <c r="L16" s="16" t="str">
         <f>VLOOKUP(C16,'Trips&amp;Operators'!$C$2:$E$10000,3,FALSE)</f>
-        <v>SANTIZO</v>
+        <v>STEWART</v>
       </c>
       <c r="M16" s="15" t="s">
         <v>140</v>
@@ -17545,25 +17507,25 @@
       </c>
       <c r="P16" s="54" t="str">
         <f>VLOOKUP(C16,'Train Runs'!$A$13:$V$174,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 10:39:48-0600',mode:absolute,to:'2016-06-26 11:25:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 15:43:27-0600',mode:absolute,to:'2016-06-26 16:32:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q16" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>4019</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="78">
-        <v>42547.471307870372</v>
+        <v>42547.717222222222</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>284</v>
+        <v>378</v>
       </c>
       <c r="D17" s="66" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E17" s="66" t="s">
         <v>76</v>
@@ -17572,23 +17534,23 @@
         <v>0</v>
       </c>
       <c r="G17" s="66">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="H17" s="66">
-        <v>109575</v>
+        <v>63290</v>
       </c>
       <c r="I17" s="66" t="s">
         <v>77</v>
       </c>
       <c r="J17" s="66">
-        <v>109135</v>
+        <v>63309</v>
       </c>
       <c r="K17" s="66" t="s">
         <v>54</v>
       </c>
       <c r="L17" s="16" t="str">
         <f>VLOOKUP(C17,'Trips&amp;Operators'!$C$2:$E$10000,3,FALSE)</f>
-        <v>MALAVE</v>
+        <v>STEWART</v>
       </c>
       <c r="M17" s="15" t="s">
         <v>140</v>
@@ -17598,11 +17560,11 @@
       </c>
       <c r="P17" s="54" t="str">
         <f>VLOOKUP(C17,'Train Runs'!$A$13:$V$174,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 10:57:52-0600',mode:absolute,to:'2016-06-26 11:45:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 15:43:27-0600',mode:absolute,to:'2016-06-26 16:32:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q17" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>4023</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -18217,7 +18179,7 @@
         <v>139</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P29" s="54" t="str">
         <f>VLOOKUP(C29,'Train Runs'!$A$13:$V$174,22,0)</f>
@@ -18270,7 +18232,7 @@
         <v>140</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="P30" s="54" t="str">
         <f>VLOOKUP(C30,'Train Runs'!$A$13:$V$174,22,0)</f>
@@ -18323,7 +18285,7 @@
         <v>140</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O31" s="42"/>
       <c r="P31" s="54" t="str">
@@ -18377,7 +18339,7 @@
         <v>139</v>
       </c>
       <c r="N32" s="66" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P32" s="54" t="str">
         <f>VLOOKUP(C32,'Train Runs'!$A$13:$V$174,22,0)</f>
@@ -18430,7 +18392,7 @@
         <v>139</v>
       </c>
       <c r="N33" s="66" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P33" s="54" t="str">
         <f>VLOOKUP(C33,'Train Runs'!$A$13:$V$174,22,0)</f>
@@ -18483,7 +18445,7 @@
         <v>139</v>
       </c>
       <c r="N34" s="66" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P34" s="54" t="str">
         <f>VLOOKUP(C34,'Train Runs'!$A$13:$V$174,22,0)</f>
@@ -20354,11 +20316,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:N47">
-    <sortState ref="A7:N70">
-      <sortCondition ref="C6:C47"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A6:N70"/>
   <sortState ref="A7:Q70">
     <sortCondition ref="E7:E70"/>
     <sortCondition ref="F7:F70"/>
@@ -20368,32 +20326,32 @@
     <mergeCell ref="A5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="P6 M6:N6 M21:M1048576">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:L7 A8:K47 L8:L20 L21:N29 L30:M31 L32:N70">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$M7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M3">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:M20">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:N20">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$M7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30:N31">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M30="Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EC/Train Runs and Enforcements 2016-06-26.xlsx
+++ b/EC/Train Runs and Enforcements 2016-06-26.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -1909,7 +1909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2129,6 +2129,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2566,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM155"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R129" sqref="R129"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2927,6 +2928,10 @@
       <c r="N11" s="79"/>
       <c r="O11" s="79"/>
       <c r="P11" s="79"/>
+      <c r="S11" s="89">
+        <f>AVERAGE(S13:S99999)</f>
+        <v>0.98928571428571432</v>
+      </c>
     </row>
     <row r="12" spans="1:91" s="10" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
@@ -16867,7 +16872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
